--- a/Excel Sheet/DDR3 Pinout.xlsx
+++ b/Excel Sheet/DDR3 Pinout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20895" windowHeight="10170" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20895" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="284">
   <si>
     <t>VREFDQ</t>
   </si>
@@ -106,9 +106,6 @@
     <t>DQS1</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>A13</t>
   </si>
   <si>
@@ -869,6 +866,12 @@
   </si>
   <si>
     <t>VSS59</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>S1#</t>
   </si>
 </sst>
 </file>
@@ -915,11 +918,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B9:P71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1240,63 +1243,63 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:16">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
       <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>32</v>
       </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
       <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
         <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -1418,10 +1421,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>124</v>
@@ -1436,10 +1439,10 @@
         <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>184</v>
@@ -1483,10 +1486,10 @@
         <v>185</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -1494,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>126</v>
@@ -1673,10 +1676,10 @@
         <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:16">
@@ -1749,10 +1752,10 @@
         <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:16">
@@ -1778,19 +1781,19 @@
         <v>73</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -1816,10 +1819,10 @@
         <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>194</v>
@@ -1836,10 +1839,10 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>135</v>
@@ -1892,19 +1895,19 @@
         <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="N26">
         <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -1921,19 +1924,19 @@
         <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>77</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>197</v>
@@ -1950,19 +1953,19 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>78</v>
@@ -1988,10 +1991,10 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>139</v>
@@ -2035,10 +2038,10 @@
         <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>80</v>
@@ -2053,10 +2056,10 @@
         <v>200</v>
       </c>
       <c r="O30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -2064,37 +2067,37 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31">
         <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -2102,10 +2105,10 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>142</v>
@@ -2120,10 +2123,10 @@
         <v>82</v>
       </c>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>202</v>
@@ -2149,10 +2152,10 @@
         <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33">
         <v>83</v>
@@ -2167,10 +2170,10 @@
         <v>203</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:16">
@@ -2178,28 +2181,28 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34">
         <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J34">
         <v>84</v>
       </c>
       <c r="K34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N34">
         <v>204</v>
@@ -2216,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35">
         <v>145</v>
@@ -2234,10 +2237,10 @@
         <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N35">
         <v>205</v>
@@ -2263,10 +2266,10 @@
         <v>146</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J36">
         <v>86</v>
@@ -2281,10 +2284,10 @@
         <v>206</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:16">
@@ -2292,37 +2295,37 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37">
         <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J37">
         <v>87</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N37">
         <v>207</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:16">
@@ -2330,10 +2333,10 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38">
         <v>148</v>
@@ -2348,10 +2351,10 @@
         <v>88</v>
       </c>
       <c r="K38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N38">
         <v>208</v>
@@ -2377,10 +2380,10 @@
         <v>149</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39">
         <v>89</v>
@@ -2395,10 +2398,10 @@
         <v>209</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:16">
@@ -2406,37 +2409,37 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40">
         <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J40">
         <v>90</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N40">
         <v>210</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:16">
@@ -2444,10 +2447,10 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41">
         <v>151</v>
@@ -2462,10 +2465,10 @@
         <v>91</v>
       </c>
       <c r="K41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N41">
         <v>211</v>
@@ -2491,10 +2494,10 @@
         <v>152</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J42">
         <v>92</v>
@@ -2509,10 +2512,10 @@
         <v>212</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:16">
@@ -2520,10 +2523,10 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43">
         <v>153</v>
@@ -2538,10 +2541,10 @@
         <v>93</v>
       </c>
       <c r="K43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N43">
         <v>213</v>
@@ -2558,10 +2561,10 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F44">
         <v>154</v>
@@ -2576,10 +2579,10 @@
         <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N44">
         <v>214</v>
@@ -2605,10 +2608,10 @@
         <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J45">
         <v>95</v>
@@ -2623,10 +2626,10 @@
         <v>215</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -2634,37 +2637,37 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46">
         <v>156</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46">
         <v>96</v>
       </c>
       <c r="K46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N46">
         <v>216</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -2672,10 +2675,10 @@
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47">
         <v>157</v>
@@ -2690,10 +2693,10 @@
         <v>97</v>
       </c>
       <c r="K47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N47">
         <v>217</v>
@@ -2722,7 +2725,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J48">
         <v>98</v>
@@ -2737,10 +2740,10 @@
         <v>218</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:16">
@@ -2751,7 +2754,7 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49">
         <v>159</v>
@@ -2760,25 +2763,25 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J49">
         <v>99</v>
       </c>
       <c r="K49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49">
         <v>219</v>
       </c>
       <c r="O49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:16">
@@ -2789,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F50">
         <v>160</v>
@@ -2804,10 +2807,10 @@
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N50">
         <v>220</v>
@@ -2833,10 +2836,10 @@
         <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J51">
         <v>101</v>
@@ -2851,10 +2854,10 @@
         <v>221</v>
       </c>
       <c r="O51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:16">
@@ -2865,7 +2868,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52">
         <v>162</v>
@@ -2880,10 +2883,10 @@
         <v>102</v>
       </c>
       <c r="K52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N52">
         <v>222</v>
@@ -2903,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53">
         <v>163</v>
@@ -2918,10 +2921,10 @@
         <v>103</v>
       </c>
       <c r="K53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N53">
         <v>223</v>
@@ -2950,7 +2953,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J54">
         <v>104</v>
@@ -2965,10 +2968,10 @@
         <v>224</v>
       </c>
       <c r="O54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -2979,7 +2982,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F55">
         <v>165</v>
@@ -2988,25 +2991,25 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J55">
         <v>105</v>
       </c>
       <c r="K55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N55">
         <v>225</v>
       </c>
       <c r="O55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -3017,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56">
         <v>166</v>
@@ -3032,10 +3035,10 @@
         <v>106</v>
       </c>
       <c r="K56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N56">
         <v>226</v>
@@ -3079,10 +3082,10 @@
         <v>227</v>
       </c>
       <c r="O57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -3099,49 +3102,49 @@
         <v>168</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J58">
         <v>108</v>
       </c>
       <c r="K58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N58">
         <v>228</v>
       </c>
       <c r="O58" t="s">
+        <v>110</v>
+      </c>
+      <c r="P58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P58" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="F59" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="J59">
         <v>109</v>
       </c>
       <c r="K59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N59">
         <v>229</v>
@@ -3167,10 +3170,10 @@
         <v>169</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J60">
         <v>110</v>
@@ -3185,10 +3188,10 @@
         <v>230</v>
       </c>
       <c r="O60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -3196,10 +3199,10 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F61">
         <v>170</v>
@@ -3214,10 +3217,10 @@
         <v>111</v>
       </c>
       <c r="K61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N61">
         <v>231</v>
@@ -3252,10 +3255,10 @@
         <v>112</v>
       </c>
       <c r="K62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N62">
         <v>232</v>
@@ -3272,10 +3275,10 @@
         <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63">
         <v>172</v>
@@ -3299,10 +3302,10 @@
         <v>233</v>
       </c>
       <c r="O63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -3328,19 +3331,19 @@
         <v>114</v>
       </c>
       <c r="K64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N64">
         <v>234</v>
       </c>
       <c r="O64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="2:16">
@@ -3357,19 +3360,19 @@
         <v>174</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J65">
         <v>115</v>
       </c>
       <c r="K65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N65">
         <v>235</v>
@@ -3386,19 +3389,19 @@
         <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66">
         <v>175</v>
       </c>
       <c r="G66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J66">
         <v>116</v>
@@ -3413,10 +3416,10 @@
         <v>236</v>
       </c>
       <c r="O66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="2:16">
@@ -3424,10 +3427,10 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F67">
         <v>176</v>
@@ -3442,19 +3445,19 @@
         <v>117</v>
       </c>
       <c r="K67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N67">
         <v>237</v>
       </c>
       <c r="O67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:16">
@@ -3471,28 +3474,28 @@
         <v>177</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J68">
         <v>118</v>
       </c>
       <c r="K68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N68">
         <v>238</v>
       </c>
       <c r="O68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:16">
@@ -3500,28 +3503,28 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F69">
         <v>178</v>
       </c>
       <c r="G69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J69">
         <v>119</v>
       </c>
       <c r="K69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N69">
         <v>239</v>
@@ -3538,10 +3541,10 @@
         <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70">
         <v>179</v>
@@ -3556,19 +3559,19 @@
         <v>120</v>
       </c>
       <c r="K70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N70">
         <v>240</v>
       </c>
       <c r="O70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:16">
@@ -3585,10 +3588,10 @@
         <v>180</v>
       </c>
       <c r="G71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3608,26 +3611,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:E244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D258" sqref="D258"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:5">
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3665,51 +3668,51 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
         <v>150</v>
@@ -3720,7 +3723,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>149</v>
@@ -3731,7 +3734,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
@@ -3742,7 +3745,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
         <v>147</v>
@@ -3753,7 +3756,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>146</v>
@@ -3764,18 +3767,18 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>124</v>
@@ -3789,10 +3792,10 @@
         <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -3800,10 +3803,10 @@
         <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -3811,10 +3814,10 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -3822,10 +3825,10 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -3844,10 +3847,10 @@
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -3866,10 +3869,10 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -3877,10 +3880,10 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -3888,10 +3891,10 @@
         <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -3921,10 +3924,10 @@
         <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -3932,10 +3935,10 @@
         <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -3943,10 +3946,10 @@
         <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -3954,10 +3957,10 @@
         <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -3965,10 +3968,10 @@
         <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -3976,10 +3979,10 @@
         <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -3987,10 +3990,10 @@
         <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -4009,10 +4012,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -4020,10 +4023,10 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -4031,10 +4034,10 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -4064,10 +4067,10 @@
         <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -4075,10 +4078,10 @@
         <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -4086,10 +4089,10 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -4097,10 +4100,10 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -4108,10 +4111,10 @@
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -4119,10 +4122,10 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -4141,10 +4144,10 @@
         <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -4152,10 +4155,10 @@
         <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -4163,10 +4166,10 @@
         <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -4174,10 +4177,10 @@
         <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -4185,10 +4188,10 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -4196,10 +4199,10 @@
         <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -4207,10 +4210,10 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -4218,10 +4221,10 @@
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -4229,10 +4232,10 @@
         <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -4240,10 +4243,10 @@
         <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -4262,10 +4265,10 @@
         <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -4273,10 +4276,10 @@
         <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -4284,10 +4287,10 @@
         <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -4295,10 +4298,10 @@
         <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -4306,10 +4309,10 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -4317,10 +4320,10 @@
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -4328,10 +4331,10 @@
         <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -4339,10 +4342,10 @@
         <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -4350,10 +4353,10 @@
         <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -4361,10 +4364,10 @@
         <v>207</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -4383,10 +4386,10 @@
         <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="2:4">
@@ -4394,10 +4397,10 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -4405,10 +4408,10 @@
         <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -4416,10 +4419,10 @@
         <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -4427,10 +4430,10 @@
         <v>209</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -4438,10 +4441,10 @@
         <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -4449,10 +4452,10 @@
         <v>215</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -4460,10 +4463,10 @@
         <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -4471,10 +4474,10 @@
         <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -4482,10 +4485,10 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -4504,10 +4507,10 @@
         <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -4515,10 +4518,10 @@
         <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -4526,10 +4529,10 @@
         <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -4537,10 +4540,10 @@
         <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -4548,10 +4551,10 @@
         <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -4559,10 +4562,10 @@
         <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -4570,10 +4573,10 @@
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -4581,10 +4584,10 @@
         <v>109</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -4592,10 +4595,10 @@
         <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -4603,10 +4606,10 @@
         <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -4625,10 +4628,10 @@
         <v>227</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -4636,10 +4639,10 @@
         <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -4647,10 +4650,10 @@
         <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -4658,10 +4661,10 @@
         <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -4713,10 +4716,10 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -4735,10 +4738,10 @@
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -4746,10 +4749,10 @@
         <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -4757,10 +4760,10 @@
         <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -4768,10 +4771,10 @@
         <v>34</v>
       </c>
       <c r="C108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="2:4">
@@ -4779,10 +4782,10 @@
         <v>33</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="2:4">
@@ -4790,10 +4793,10 @@
         <v>85</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="2:4">
@@ -4801,10 +4804,10 @@
         <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="2:4">
@@ -4812,10 +4815,10 @@
         <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="2:4">
@@ -4823,10 +4826,10 @@
         <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="2:4">
@@ -4834,10 +4837,10 @@
         <v>103</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="2:4">
@@ -4845,10 +4848,10 @@
         <v>102</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="2:4">
@@ -4856,10 +4859,10 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="2:4">
@@ -4867,10 +4870,10 @@
         <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="2:4">
@@ -4881,7 +4884,7 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="2:4">
@@ -4892,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="2:4">
@@ -4903,7 +4906,7 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="2:4">
@@ -4914,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="2:4">
@@ -4925,7 +4928,7 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="2:4">
@@ -4936,7 +4939,7 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="2:4">
@@ -5035,7 +5038,7 @@
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="2:4">
@@ -5046,7 +5049,7 @@
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="2:4">
@@ -5068,7 +5071,7 @@
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="2:4">
@@ -5079,7 +5082,7 @@
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="2:4">
@@ -5186,10 +5189,10 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="2:4">
@@ -5208,10 +5211,10 @@
         <v>77</v>
       </c>
       <c r="C148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="2:4">
@@ -5219,10 +5222,10 @@
         <v>192</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="2:4">
@@ -5230,10 +5233,10 @@
         <v>168</v>
       </c>
       <c r="C150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="2:4">
@@ -5241,10 +5244,10 @@
         <v>193</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="2:4">
@@ -5252,10 +5255,10 @@
         <v>76</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="2:4">
@@ -5263,10 +5266,10 @@
         <v>117</v>
       </c>
       <c r="C153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="2:4">
@@ -5274,10 +5277,10 @@
         <v>237</v>
       </c>
       <c r="C154" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D154" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="2:4">
@@ -5285,10 +5288,10 @@
         <v>119</v>
       </c>
       <c r="C155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="2:4">
@@ -5296,10 +5299,10 @@
         <v>118</v>
       </c>
       <c r="C156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="2:4">
@@ -5307,10 +5310,10 @@
         <v>238</v>
       </c>
       <c r="C157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="2:4">
@@ -5560,10 +5563,10 @@
         <v>236</v>
       </c>
       <c r="C180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="2:4">
@@ -6242,10 +6245,10 @@
         <v>120</v>
       </c>
       <c r="C242" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D242" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="243" spans="2:4">
@@ -6253,10 +6256,10 @@
         <v>240</v>
       </c>
       <c r="C243" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D243" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="244" spans="2:4">
@@ -6264,10 +6267,10 @@
         <v>73</v>
       </c>
       <c r="C244" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D244" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6284,77 +6287,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4:U62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:21" ht="18.75">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
       <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>154</v>
       </c>
-      <c r="F3" t="s">
-        <v>155</v>
-      </c>
       <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
         <v>154</v>
       </c>
-      <c r="I3" t="s">
-        <v>155</v>
-      </c>
       <c r="K3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
         <v>154</v>
       </c>
-      <c r="L3" t="s">
-        <v>155</v>
-      </c>
       <c r="N3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" t="s">
         <v>154</v>
       </c>
-      <c r="O3" t="s">
-        <v>155</v>
-      </c>
       <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" t="s">
         <v>154</v>
       </c>
-      <c r="R3" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" t="s">
         <v>154</v>
-      </c>
-      <c r="U3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:21">
@@ -6368,7 +6371,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -6418,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>134</v>
@@ -6456,7 +6459,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -6468,7 +6471,7 @@
         <v>143</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>42</v>
@@ -6494,13 +6497,13 @@
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -6512,7 +6515,7 @@
         <v>152</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>43</v>
@@ -6538,13 +6541,13 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8">
         <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>122</v>
@@ -6556,7 +6559,7 @@
         <v>203</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>45</v>
@@ -6582,13 +6585,13 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <v>123</v>
@@ -6600,7 +6603,7 @@
         <v>212</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N9">
         <v>46</v>
@@ -6626,13 +6629,13 @@
         <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>128</v>
@@ -6644,7 +6647,7 @@
         <v>221</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>48</v>
@@ -6670,13 +6673,13 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11">
         <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>129</v>
@@ -6688,7 +6691,7 @@
         <v>230</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>49</v>
@@ -6714,13 +6717,13 @@
         <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12">
         <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12">
         <v>12</v>
@@ -6732,7 +6735,7 @@
         <v>161</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>53</v>
@@ -6758,13 +6761,13 @@
         <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>193</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13">
         <v>13</v>
@@ -6808,19 +6811,19 @@
         <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="H14">
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>79</v>
@@ -6843,22 +6846,22 @@
     </row>
     <row r="15" spans="2:21">
       <c r="B15">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="E15">
         <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15">
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>16</v>
@@ -6887,16 +6890,16 @@
     </row>
     <row r="16" spans="2:21">
       <c r="B16">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16">
         <v>131</v>
@@ -6908,7 +6911,7 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>135</v>
@@ -6931,16 +6934,16 @@
     </row>
     <row r="17" spans="2:21">
       <c r="B17">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>132</v>
@@ -6952,7 +6955,7 @@
         <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N17">
         <v>153</v>
@@ -6975,10 +6978,10 @@
     </row>
     <row r="18" spans="2:21">
       <c r="B18">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>184</v>
@@ -6990,13 +6993,13 @@
         <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
         <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N18">
         <v>158</v>
@@ -7019,28 +7022,28 @@
     </row>
     <row r="19" spans="2:21">
       <c r="B19">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="E19">
         <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>159</v>
@@ -7062,6 +7065,12 @@
       </c>
     </row>
     <row r="20" spans="2:21">
+      <c r="B20">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
       <c r="E20">
         <v>63</v>
       </c>
@@ -7072,13 +7081,13 @@
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N20">
         <v>162</v>
@@ -7104,19 +7113,19 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N21">
         <v>164</v>
@@ -7142,19 +7151,19 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22">
         <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <v>84</v>
       </c>
       <c r="L22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N22">
         <v>165</v>
@@ -7180,19 +7189,19 @@
         <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23">
         <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23">
         <v>94</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N23">
         <v>167</v>
@@ -7218,13 +7227,13 @@
         <v>140</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>93</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N24">
         <v>171</v>
@@ -7250,13 +7259,13 @@
         <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>103</v>
       </c>
       <c r="L25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N25">
         <v>172</v>
@@ -7282,13 +7291,13 @@
         <v>146</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26">
         <v>102</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N26">
         <v>187</v>
@@ -7300,7 +7309,7 @@
         <v>236</v>
       </c>
       <c r="R26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T26">
         <v>98</v>
@@ -7314,13 +7323,13 @@
         <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27">
         <v>112</v>
       </c>
       <c r="L27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N27">
         <v>198</v>
@@ -7346,13 +7355,13 @@
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28">
         <v>111</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N28">
         <v>204</v>
@@ -7378,7 +7387,7 @@
         <v>31</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N29">
         <v>213</v>
@@ -7390,7 +7399,7 @@
         <v>120</v>
       </c>
       <c r="R29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T29">
         <v>107</v>
@@ -7404,7 +7413,7 @@
         <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N30">
         <v>222</v>
@@ -7416,7 +7425,7 @@
         <v>240</v>
       </c>
       <c r="R30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T30">
         <v>110</v>
@@ -7430,7 +7439,7 @@
         <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31">
         <v>231</v>
@@ -7450,13 +7459,13 @@
         <v>149</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>144</v>
       </c>
       <c r="O32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T32">
         <v>116</v>
@@ -7470,7 +7479,7 @@
         <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T33">
         <v>121</v>
@@ -7484,7 +7493,7 @@
         <v>155</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T34">
         <v>124</v>
@@ -7498,7 +7507,7 @@
         <v>156</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T35">
         <v>127</v>
@@ -7512,7 +7521,7 @@
         <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T36">
         <v>130</v>
@@ -7526,7 +7535,7 @@
         <v>82</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T37">
         <v>133</v>
@@ -7540,7 +7549,7 @@
         <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T38">
         <v>136</v>
@@ -7554,7 +7563,7 @@
         <v>88</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T39">
         <v>139</v>
@@ -7568,7 +7577,7 @@
         <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T40">
         <v>142</v>
@@ -7582,7 +7591,7 @@
         <v>201</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T41">
         <v>145</v>
@@ -7596,7 +7605,7 @@
         <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T42">
         <v>148</v>
@@ -7610,7 +7619,7 @@
         <v>207</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T43">
         <v>151</v>
@@ -7624,7 +7633,7 @@
         <v>90</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T44">
         <v>154</v>
@@ -7638,7 +7647,7 @@
         <v>91</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T45">
         <v>157</v>
@@ -7652,7 +7661,7 @@
         <v>96</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T46">
         <v>160</v>
@@ -7666,7 +7675,7 @@
         <v>97</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T47">
         <v>163</v>
@@ -7680,7 +7689,7 @@
         <v>209</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T48">
         <v>166</v>
@@ -7694,7 +7703,7 @@
         <v>210</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T49">
         <v>199</v>
@@ -7708,7 +7717,7 @@
         <v>215</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T50">
         <v>202</v>
@@ -7722,7 +7731,7 @@
         <v>216</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T51">
         <v>205</v>
@@ -7736,7 +7745,7 @@
         <v>99</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T52">
         <v>208</v>
@@ -7750,7 +7759,7 @@
         <v>100</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T53">
         <v>211</v>
@@ -7764,7 +7773,7 @@
         <v>105</v>
       </c>
       <c r="I54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T54">
         <v>214</v>
@@ -7778,7 +7787,7 @@
         <v>106</v>
       </c>
       <c r="I55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T55">
         <v>217</v>
@@ -7792,7 +7801,7 @@
         <v>218</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T56">
         <v>220</v>
@@ -7806,7 +7815,7 @@
         <v>219</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T57">
         <v>223</v>
@@ -7820,7 +7829,7 @@
         <v>224</v>
       </c>
       <c r="I58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T58">
         <v>226</v>
@@ -7834,7 +7843,7 @@
         <v>225</v>
       </c>
       <c r="I59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T59">
         <v>229</v>
@@ -7848,7 +7857,7 @@
         <v>108</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T60">
         <v>232</v>
@@ -7862,7 +7871,7 @@
         <v>109</v>
       </c>
       <c r="I61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T61">
         <v>235</v>
@@ -7876,7 +7885,7 @@
         <v>114</v>
       </c>
       <c r="I62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T62">
         <v>239</v>
@@ -7890,7 +7899,7 @@
         <v>115</v>
       </c>
       <c r="I63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="8:21">
@@ -7898,7 +7907,7 @@
         <v>227</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="8:9">
@@ -7906,7 +7915,7 @@
         <v>228</v>
       </c>
       <c r="I65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="8:9">
@@ -7914,7 +7923,7 @@
         <v>233</v>
       </c>
       <c r="I66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="8:9">
@@ -7922,7 +7931,7 @@
         <v>234</v>
       </c>
       <c r="I67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7935,227 +7944,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BK67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ31" workbookViewId="0">
-      <selection activeCell="BD4" sqref="BD4:BH62"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:63" ht="18.75">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AC2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AL2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AL2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AU2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BD2" s="2" t="s">
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AU2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BD2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:63">
       <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>162</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>163</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>164</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>165</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>166</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>167</v>
       </c>
-      <c r="I3" t="s">
-        <v>168</v>
-      </c>
       <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
         <v>161</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>162</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>163</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>164</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>165</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>167</v>
       </c>
-      <c r="R3" t="s">
-        <v>168</v>
-      </c>
       <c r="T3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" t="s">
         <v>161</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>162</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>163</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>164</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>165</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>166</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>167</v>
       </c>
-      <c r="AA3" t="s">
-        <v>168</v>
-      </c>
       <c r="AC3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>162</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>163</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>164</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>165</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>166</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>167</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>168</v>
-      </c>
       <c r="AL3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM3" t="s">
         <v>161</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>162</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>163</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>164</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>165</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>166</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>167</v>
       </c>
-      <c r="AS3" t="s">
-        <v>168</v>
-      </c>
       <c r="AU3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV3" t="s">
         <v>161</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>162</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>163</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>164</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>165</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>166</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>167</v>
       </c>
-      <c r="BB3" t="s">
-        <v>168</v>
-      </c>
       <c r="BD3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE3" t="s">
         <v>161</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>162</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>163</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>164</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>165</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>166</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>167</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:63">
@@ -8166,28 +8175,28 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K4">
         <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -8196,13 +8205,13 @@
         <v>6</v>
       </c>
       <c r="V4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC4">
         <v>125</v>
@@ -8211,58 +8220,58 @@
         <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF4">
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL4">
         <v>39</v>
       </c>
       <c r="AM4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO4">
         <v>1</v>
       </c>
       <c r="AP4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU4">
         <v>51</v>
       </c>
       <c r="AV4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AW4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX4">
         <v>1</v>
       </c>
       <c r="AY4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD4">
         <v>2</v>
       </c>
       <c r="BE4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BF4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG4">
         <v>1</v>
       </c>
       <c r="BH4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:63">
@@ -8273,13 +8282,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K5">
         <v>195</v>
@@ -8288,28 +8297,28 @@
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T5">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W5">
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC5">
         <v>134</v>
@@ -8318,58 +8327,58 @@
         <v>25</v>
       </c>
       <c r="AE5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF5">
         <v>2</v>
       </c>
       <c r="AG5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL5">
         <v>40</v>
       </c>
       <c r="AM5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO5">
         <v>2</v>
       </c>
       <c r="AP5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU5">
         <v>54</v>
       </c>
       <c r="AV5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AW5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX5">
         <v>2</v>
       </c>
       <c r="AY5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD5">
         <v>5</v>
       </c>
       <c r="BE5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BF5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG5">
         <v>2</v>
       </c>
       <c r="BH5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:63">
@@ -8380,28 +8389,28 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K6">
         <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N6">
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T6">
         <v>9</v>
@@ -8410,73 +8419,73 @@
         <v>16</v>
       </c>
       <c r="V6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W6">
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC6">
         <v>143</v>
       </c>
       <c r="AD6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF6">
         <v>3</v>
       </c>
       <c r="AG6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL6">
         <v>42</v>
       </c>
       <c r="AM6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO6">
         <v>3</v>
       </c>
       <c r="AP6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU6">
         <v>57</v>
       </c>
       <c r="AV6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AW6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX6">
         <v>3</v>
       </c>
       <c r="AY6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD6">
         <v>8</v>
       </c>
       <c r="BE6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BF6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG6">
         <v>3</v>
       </c>
       <c r="BH6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:63">
@@ -8484,31 +8493,31 @@
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K7">
         <v>117</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T7">
         <v>10</v>
@@ -8517,73 +8526,73 @@
         <v>18</v>
       </c>
       <c r="V7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC7">
         <v>152</v>
       </c>
       <c r="AD7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF7">
         <v>4</v>
       </c>
       <c r="AG7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL7">
         <v>43</v>
       </c>
       <c r="AM7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AN7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO7">
         <v>4</v>
       </c>
       <c r="AP7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU7">
         <v>60</v>
       </c>
       <c r="AV7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AW7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX7">
         <v>4</v>
       </c>
       <c r="AY7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD7">
         <v>11</v>
       </c>
       <c r="BE7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BF7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG7">
         <v>4</v>
       </c>
       <c r="BH7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:63">
@@ -8591,31 +8600,31 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K8">
         <v>237</v>
       </c>
       <c r="L8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T8">
         <v>122</v>
@@ -8624,73 +8633,73 @@
         <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W8">
         <v>5</v>
       </c>
       <c r="X8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC8">
         <v>203</v>
       </c>
       <c r="AD8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF8">
         <v>5</v>
       </c>
       <c r="AG8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL8">
         <v>45</v>
       </c>
       <c r="AM8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO8">
         <v>5</v>
       </c>
       <c r="AP8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU8">
         <v>62</v>
       </c>
       <c r="AV8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX8">
         <v>5</v>
       </c>
       <c r="AY8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD8">
         <v>14</v>
       </c>
       <c r="BE8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BF8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG8">
         <v>5</v>
       </c>
       <c r="BH8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:63">
@@ -8698,31 +8707,31 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9">
         <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T9">
         <v>123</v>
@@ -8731,73 +8740,73 @@
         <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W9">
         <v>6</v>
       </c>
       <c r="X9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC9">
         <v>212</v>
       </c>
       <c r="AD9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF9">
         <v>6</v>
       </c>
       <c r="AG9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL9">
         <v>46</v>
       </c>
       <c r="AM9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO9">
         <v>6</v>
       </c>
       <c r="AP9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU9">
         <v>65</v>
       </c>
       <c r="AV9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX9">
         <v>6</v>
       </c>
       <c r="AY9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD9">
         <v>17</v>
       </c>
       <c r="BE9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BF9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG9">
         <v>6</v>
       </c>
       <c r="BH9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:63">
@@ -8805,31 +8814,31 @@
         <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K10">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N10">
         <v>7</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T10">
         <v>128</v>
@@ -8838,73 +8847,73 @@
         <v>14</v>
       </c>
       <c r="V10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W10">
         <v>7</v>
       </c>
       <c r="X10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC10">
         <v>221</v>
       </c>
       <c r="AD10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF10">
         <v>7</v>
       </c>
       <c r="AG10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL10">
         <v>48</v>
       </c>
       <c r="AM10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO10">
         <v>7</v>
       </c>
       <c r="AP10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU10">
         <v>66</v>
       </c>
       <c r="AV10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX10">
         <v>7</v>
       </c>
       <c r="AY10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD10">
         <v>20</v>
       </c>
       <c r="BE10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BF10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG10">
         <v>7</v>
       </c>
       <c r="BH10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:63">
@@ -8912,31 +8921,31 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K11">
         <v>192</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N11">
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T11">
         <v>129</v>
@@ -8945,73 +8954,73 @@
         <v>17</v>
       </c>
       <c r="V11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W11">
         <v>8</v>
       </c>
       <c r="X11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC11">
         <v>230</v>
       </c>
       <c r="AD11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF11">
         <v>8</v>
       </c>
       <c r="AG11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL11">
         <v>49</v>
       </c>
       <c r="AM11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO11">
         <v>8</v>
       </c>
       <c r="AP11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU11">
         <v>69</v>
       </c>
       <c r="AV11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX11">
         <v>8</v>
       </c>
       <c r="AY11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD11">
         <v>23</v>
       </c>
       <c r="BE11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BF11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG11">
         <v>8</v>
       </c>
       <c r="BH11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:63">
@@ -9019,31 +9028,31 @@
         <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12">
         <v>168</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N12">
         <v>9</v>
       </c>
       <c r="O12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T12">
         <v>12</v>
@@ -9052,73 +9061,73 @@
         <v>22</v>
       </c>
       <c r="V12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W12">
         <v>9</v>
       </c>
       <c r="X12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC12">
         <v>161</v>
       </c>
       <c r="AD12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF12">
         <v>9</v>
       </c>
       <c r="AG12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL12">
         <v>53</v>
       </c>
       <c r="AM12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO12">
         <v>9</v>
       </c>
       <c r="AP12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU12">
         <v>72</v>
       </c>
       <c r="AV12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX12">
         <v>9</v>
       </c>
       <c r="AY12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD12">
         <v>26</v>
       </c>
       <c r="BE12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BF12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG12">
         <v>9</v>
       </c>
       <c r="BH12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:63">
@@ -9126,31 +9135,31 @@
         <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K13">
         <v>193</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N13">
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T13">
         <v>13</v>
@@ -9159,13 +9168,13 @@
         <v>24</v>
       </c>
       <c r="V13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W13">
         <v>10</v>
       </c>
       <c r="X13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC13">
         <v>7</v>
@@ -9174,58 +9183,58 @@
         <v>12</v>
       </c>
       <c r="AE13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF13">
         <v>10</v>
       </c>
       <c r="AG13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL13">
         <v>68</v>
       </c>
       <c r="AM13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO13">
         <v>10</v>
       </c>
       <c r="AP13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU13">
         <v>75</v>
       </c>
       <c r="AV13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX13">
         <v>10</v>
       </c>
       <c r="AY13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD13">
         <v>29</v>
       </c>
       <c r="BE13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BF13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG13">
         <v>10</v>
       </c>
       <c r="BH13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:63">
@@ -9236,150 +9245,150 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K14">
         <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="M14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14">
         <v>11</v>
       </c>
       <c r="O14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T14">
         <v>18</v>
       </c>
       <c r="U14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W14">
         <v>11</v>
       </c>
       <c r="X14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC14">
         <v>6</v>
       </c>
       <c r="AD14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF14">
         <v>11</v>
       </c>
       <c r="AG14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL14">
         <v>79</v>
       </c>
       <c r="AM14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO14">
         <v>11</v>
       </c>
       <c r="AP14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU14">
         <v>78</v>
       </c>
       <c r="AV14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX14">
         <v>11</v>
       </c>
       <c r="AY14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD14">
         <v>32</v>
       </c>
       <c r="BE14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BF14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG14">
         <v>11</v>
       </c>
       <c r="BH14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="2:63">
       <c r="B15">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15">
         <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N15">
         <v>12</v>
       </c>
       <c r="O15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T15">
         <v>19</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W15">
         <v>12</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC15">
         <v>16</v>
@@ -9388,90 +9397,90 @@
         <v>27</v>
       </c>
       <c r="AE15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF15">
         <v>12</v>
       </c>
       <c r="AG15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL15">
         <v>126</v>
       </c>
       <c r="AM15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO15">
         <v>12</v>
       </c>
       <c r="AP15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU15">
         <v>170</v>
       </c>
       <c r="AV15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AW15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX15">
         <v>12</v>
       </c>
       <c r="AY15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD15">
         <v>35</v>
       </c>
       <c r="BE15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BF15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG15">
         <v>12</v>
       </c>
       <c r="BH15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="2:63">
       <c r="B16">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K16">
         <v>238</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N16">
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T16">
         <v>131</v>
@@ -9480,105 +9489,105 @@
         <v>20</v>
       </c>
       <c r="V16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W16">
         <v>13</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC16">
         <v>15</v>
       </c>
       <c r="AD16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF16">
         <v>13</v>
       </c>
       <c r="AG16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL16">
         <v>135</v>
       </c>
       <c r="AM16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO16">
         <v>13</v>
       </c>
       <c r="AP16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU16">
         <v>173</v>
       </c>
       <c r="AV16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AW16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX16">
         <v>13</v>
       </c>
       <c r="AY16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD16">
         <v>38</v>
       </c>
       <c r="BE16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BF16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG16">
         <v>13</v>
       </c>
       <c r="BH16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:60">
       <c r="B17">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K17">
         <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N17">
         <v>14</v>
       </c>
       <c r="O17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T17">
         <v>132</v>
@@ -9587,90 +9596,90 @@
         <v>23</v>
       </c>
       <c r="V17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W17">
         <v>14</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC17">
         <v>25</v>
       </c>
       <c r="AD17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF17">
         <v>14</v>
       </c>
       <c r="AG17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL17">
         <v>153</v>
       </c>
       <c r="AM17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO17">
         <v>14</v>
       </c>
       <c r="AP17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU17">
         <v>176</v>
       </c>
       <c r="AV17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AW17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX17">
         <v>14</v>
       </c>
       <c r="AY17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD17">
         <v>41</v>
       </c>
       <c r="BE17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BF17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG17">
         <v>14</v>
       </c>
       <c r="BH17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:60">
       <c r="B18">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K18">
         <v>184</v>
@@ -9679,198 +9688,213 @@
         <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N18">
         <v>15</v>
       </c>
       <c r="O18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T18">
         <v>137</v>
       </c>
       <c r="U18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W18">
         <v>15</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC18">
         <v>24</v>
       </c>
       <c r="AD18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF18">
         <v>15</v>
       </c>
       <c r="AG18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL18">
         <v>158</v>
       </c>
       <c r="AM18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO18">
         <v>15</v>
       </c>
       <c r="AP18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU18">
         <v>179</v>
       </c>
       <c r="AV18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AW18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX18">
         <v>15</v>
       </c>
       <c r="AY18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD18">
         <v>44</v>
       </c>
       <c r="BE18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BF18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG18">
         <v>15</v>
       </c>
       <c r="BH18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:60">
       <c r="B19">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K19">
         <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N19">
         <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T19">
         <v>138</v>
       </c>
       <c r="U19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W19">
         <v>16</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC19">
         <v>34</v>
       </c>
       <c r="AD19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF19">
         <v>16</v>
       </c>
       <c r="AG19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL19">
         <v>159</v>
       </c>
       <c r="AM19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO19">
         <v>16</v>
       </c>
       <c r="AP19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU19">
         <v>182</v>
       </c>
       <c r="AV19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AW19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX19">
         <v>16</v>
       </c>
       <c r="AY19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD19">
         <v>47</v>
       </c>
       <c r="BE19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BF19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG19">
         <v>16</v>
       </c>
       <c r="BH19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="2:60">
+      <c r="B20">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
       <c r="K20">
         <v>63</v>
       </c>
@@ -9878,88 +9902,88 @@
         <v>8</v>
       </c>
       <c r="M20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N20">
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T20">
         <v>21</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W20">
         <v>17</v>
       </c>
       <c r="X20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC20">
         <v>33</v>
       </c>
       <c r="AD20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF20">
         <v>17</v>
       </c>
       <c r="AG20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL20">
         <v>162</v>
       </c>
       <c r="AM20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AN20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO20">
         <v>17</v>
       </c>
       <c r="AP20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU20">
         <v>183</v>
       </c>
       <c r="AV20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AW20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX20">
         <v>17</v>
       </c>
       <c r="AY20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD20">
         <v>80</v>
       </c>
       <c r="BE20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BF20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG20">
         <v>17</v>
       </c>
       <c r="BH20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:60">
@@ -9967,91 +9991,91 @@
         <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N21">
         <v>18</v>
       </c>
       <c r="O21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T21">
         <v>22</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W21">
         <v>18</v>
       </c>
       <c r="X21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC21">
         <v>85</v>
       </c>
       <c r="AD21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF21">
         <v>18</v>
       </c>
       <c r="AG21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL21">
         <v>164</v>
       </c>
       <c r="AM21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO21">
         <v>18</v>
       </c>
       <c r="AP21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU21">
         <v>186</v>
       </c>
       <c r="AV21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AW21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX21">
         <v>18</v>
       </c>
       <c r="AY21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD21">
         <v>83</v>
       </c>
       <c r="BE21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BF21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG21">
         <v>18</v>
       </c>
       <c r="BH21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:60">
@@ -10059,91 +10083,91 @@
         <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N22">
         <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T22">
         <v>27</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W22">
         <v>19</v>
       </c>
       <c r="X22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC22">
         <v>84</v>
       </c>
       <c r="AD22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF22">
         <v>19</v>
       </c>
       <c r="AG22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL22">
         <v>165</v>
       </c>
       <c r="AM22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO22">
         <v>19</v>
       </c>
       <c r="AP22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU22">
         <v>189</v>
       </c>
       <c r="AV22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AW22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX22">
         <v>19</v>
       </c>
       <c r="AY22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD22">
         <v>86</v>
       </c>
       <c r="BE22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BF22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG22">
         <v>19</v>
       </c>
       <c r="BH22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:60">
@@ -10151,91 +10175,91 @@
         <v>169</v>
       </c>
       <c r="L23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N23">
         <v>20</v>
       </c>
       <c r="O23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T23">
         <v>28</v>
       </c>
       <c r="U23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W23">
         <v>20</v>
       </c>
       <c r="X23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC23">
         <v>94</v>
       </c>
       <c r="AD23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF23">
         <v>20</v>
       </c>
       <c r="AG23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL23">
         <v>167</v>
       </c>
       <c r="AM23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO23">
         <v>20</v>
       </c>
       <c r="AP23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU23">
         <v>191</v>
       </c>
       <c r="AV23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AW23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX23">
         <v>20</v>
       </c>
       <c r="AY23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD23">
         <v>89</v>
       </c>
       <c r="BE23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BF23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG23">
         <v>20</v>
       </c>
       <c r="BH23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:60">
@@ -10243,76 +10267,76 @@
         <v>140</v>
       </c>
       <c r="U24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W24">
         <v>21</v>
       </c>
       <c r="X24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC24">
         <v>93</v>
       </c>
       <c r="AD24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF24">
         <v>21</v>
       </c>
       <c r="AG24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL24">
         <v>171</v>
       </c>
       <c r="AM24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO24">
         <v>21</v>
       </c>
       <c r="AP24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU24">
         <v>194</v>
       </c>
       <c r="AV24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AW24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX24">
         <v>21</v>
       </c>
       <c r="AY24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD24">
         <v>92</v>
       </c>
       <c r="BE24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BF24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG24">
         <v>21</v>
       </c>
       <c r="BH24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:60">
@@ -10320,76 +10344,76 @@
         <v>141</v>
       </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W25">
         <v>22</v>
       </c>
       <c r="X25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC25">
         <v>103</v>
       </c>
       <c r="AD25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF25">
         <v>22</v>
       </c>
       <c r="AG25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL25">
         <v>172</v>
       </c>
       <c r="AM25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO25">
         <v>22</v>
       </c>
       <c r="AP25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU25">
         <v>197</v>
       </c>
       <c r="AV25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AW25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX25">
         <v>22</v>
       </c>
       <c r="AY25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD25">
         <v>95</v>
       </c>
       <c r="BE25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BF25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG25">
         <v>22</v>
       </c>
       <c r="BH25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="2:60">
@@ -10397,76 +10421,76 @@
         <v>146</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W26">
         <v>23</v>
       </c>
       <c r="X26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC26">
         <v>102</v>
       </c>
       <c r="AD26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF26">
         <v>23</v>
       </c>
       <c r="AG26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL26">
         <v>187</v>
       </c>
       <c r="AM26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO26">
         <v>23</v>
       </c>
       <c r="AP26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU26">
         <v>236</v>
       </c>
       <c r="AV26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AW26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX26">
         <v>23</v>
       </c>
       <c r="AY26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD26">
         <v>98</v>
       </c>
       <c r="BE26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BF26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG26">
         <v>23</v>
       </c>
       <c r="BH26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:60">
@@ -10474,46 +10498,46 @@
         <v>147</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W27">
         <v>24</v>
       </c>
       <c r="X27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC27">
         <v>112</v>
       </c>
       <c r="AD27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF27">
         <v>24</v>
       </c>
       <c r="AG27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL27">
         <v>198</v>
       </c>
       <c r="AM27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO27">
         <v>24</v>
       </c>
       <c r="AP27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU27">
         <v>67</v>
@@ -10522,28 +10546,28 @@
         <v>13</v>
       </c>
       <c r="AW27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX27">
         <v>24</v>
       </c>
       <c r="AY27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD27">
         <v>101</v>
       </c>
       <c r="BE27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BF27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG27">
         <v>24</v>
       </c>
       <c r="BH27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:60">
@@ -10551,46 +10575,46 @@
         <v>30</v>
       </c>
       <c r="U28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W28">
         <v>25</v>
       </c>
       <c r="X28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC28">
         <v>111</v>
       </c>
       <c r="AD28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF28">
         <v>25</v>
       </c>
       <c r="AG28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL28">
         <v>204</v>
       </c>
       <c r="AM28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO28">
         <v>25</v>
       </c>
       <c r="AP28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU28">
         <v>1</v>
@@ -10599,28 +10623,28 @@
         <v>0</v>
       </c>
       <c r="AW28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX28">
         <v>25</v>
       </c>
       <c r="AY28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD28">
         <v>104</v>
       </c>
       <c r="BE28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BF28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG28">
         <v>25</v>
       </c>
       <c r="BH28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:60">
@@ -10628,61 +10652,61 @@
         <v>31</v>
       </c>
       <c r="U29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W29">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL29">
         <v>213</v>
       </c>
       <c r="AM29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AN29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO29">
         <v>26</v>
       </c>
       <c r="AP29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU29">
         <v>120</v>
       </c>
       <c r="AV29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX29">
         <v>26</v>
       </c>
       <c r="AY29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD29">
         <v>107</v>
       </c>
       <c r="BE29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BF29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG29">
         <v>26</v>
       </c>
       <c r="BH29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:60">
@@ -10690,61 +10714,61 @@
         <v>36</v>
       </c>
       <c r="U30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W30">
         <v>27</v>
       </c>
       <c r="X30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL30">
         <v>222</v>
       </c>
       <c r="AM30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO30">
         <v>27</v>
       </c>
       <c r="AP30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU30">
         <v>240</v>
       </c>
       <c r="AV30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AW30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX30">
         <v>27</v>
       </c>
       <c r="AY30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD30">
         <v>110</v>
       </c>
       <c r="BE30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BF30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG30">
         <v>27</v>
       </c>
       <c r="BH30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:60">
@@ -10752,46 +10776,46 @@
         <v>37</v>
       </c>
       <c r="U31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W31">
         <v>28</v>
       </c>
       <c r="X31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL31">
         <v>231</v>
       </c>
       <c r="AM31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO31">
         <v>28</v>
       </c>
       <c r="AP31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD31">
         <v>113</v>
       </c>
       <c r="BE31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BF31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG31">
         <v>28</v>
       </c>
       <c r="BH31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:60">
@@ -10799,46 +10823,46 @@
         <v>149</v>
       </c>
       <c r="U32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W32">
         <v>29</v>
       </c>
       <c r="X32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL32">
         <v>144</v>
       </c>
       <c r="AM32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO32">
         <v>29</v>
       </c>
       <c r="AP32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD32">
         <v>116</v>
       </c>
       <c r="BE32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BF32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG32">
         <v>29</v>
       </c>
       <c r="BH32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="20:60">
@@ -10846,31 +10870,31 @@
         <v>150</v>
       </c>
       <c r="U33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W33">
         <v>30</v>
       </c>
       <c r="X33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD33">
         <v>121</v>
       </c>
       <c r="BE33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BF33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG33">
         <v>30</v>
       </c>
       <c r="BH33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="20:60">
@@ -10878,31 +10902,31 @@
         <v>155</v>
       </c>
       <c r="U34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W34">
         <v>31</v>
       </c>
       <c r="X34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD34">
         <v>124</v>
       </c>
       <c r="BE34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BF34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG34">
         <v>31</v>
       </c>
       <c r="BH34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="20:60">
@@ -10910,31 +10934,31 @@
         <v>156</v>
       </c>
       <c r="U35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W35">
         <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD35">
         <v>127</v>
       </c>
       <c r="BE35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BF35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG35">
         <v>32</v>
       </c>
       <c r="BH35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="20:60">
@@ -10942,31 +10966,31 @@
         <v>81</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W36">
         <v>33</v>
       </c>
       <c r="X36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD36">
         <v>130</v>
       </c>
       <c r="BE36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BF36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG36">
         <v>33</v>
       </c>
       <c r="BH36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="20:60">
@@ -10974,31 +10998,31 @@
         <v>82</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W37">
         <v>34</v>
       </c>
       <c r="X37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD37">
         <v>133</v>
       </c>
       <c r="BE37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BF37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG37">
         <v>34</v>
       </c>
       <c r="BH37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="20:60">
@@ -11006,31 +11030,31 @@
         <v>87</v>
       </c>
       <c r="U38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W38">
         <v>35</v>
       </c>
       <c r="X38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD38">
         <v>136</v>
       </c>
       <c r="BE38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BF38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG38">
         <v>35</v>
       </c>
       <c r="BH38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="20:60">
@@ -11038,31 +11062,31 @@
         <v>88</v>
       </c>
       <c r="U39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W39">
         <v>36</v>
       </c>
       <c r="X39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD39">
         <v>139</v>
       </c>
       <c r="BE39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BF39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG39">
         <v>36</v>
       </c>
       <c r="BH39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="20:60">
@@ -11070,31 +11094,31 @@
         <v>200</v>
       </c>
       <c r="U40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W40">
         <v>37</v>
       </c>
       <c r="X40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD40">
         <v>142</v>
       </c>
       <c r="BE40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BF40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG40">
         <v>37</v>
       </c>
       <c r="BH40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="20:60">
@@ -11102,31 +11126,31 @@
         <v>201</v>
       </c>
       <c r="U41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W41">
         <v>38</v>
       </c>
       <c r="X41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD41">
         <v>145</v>
       </c>
       <c r="BE41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BF41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG41">
         <v>38</v>
       </c>
       <c r="BH41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="20:60">
@@ -11134,31 +11158,31 @@
         <v>206</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W42">
         <v>39</v>
       </c>
       <c r="X42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD42">
         <v>148</v>
       </c>
       <c r="BE42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BF42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG42">
         <v>39</v>
       </c>
       <c r="BH42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="20:60">
@@ -11166,31 +11190,31 @@
         <v>207</v>
       </c>
       <c r="U43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W43">
         <v>40</v>
       </c>
       <c r="X43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD43">
         <v>151</v>
       </c>
       <c r="BE43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BF43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG43">
         <v>40</v>
       </c>
       <c r="BH43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="20:60">
@@ -11198,31 +11222,31 @@
         <v>90</v>
       </c>
       <c r="U44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W44">
         <v>41</v>
       </c>
       <c r="X44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD44">
         <v>154</v>
       </c>
       <c r="BE44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BF44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG44">
         <v>41</v>
       </c>
       <c r="BH44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="20:60">
@@ -11230,31 +11254,31 @@
         <v>91</v>
       </c>
       <c r="U45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W45">
         <v>42</v>
       </c>
       <c r="X45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD45">
         <v>157</v>
       </c>
       <c r="BE45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BF45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG45">
         <v>42</v>
       </c>
       <c r="BH45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="20:60">
@@ -11262,31 +11286,31 @@
         <v>96</v>
       </c>
       <c r="U46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W46">
         <v>43</v>
       </c>
       <c r="X46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD46">
         <v>160</v>
       </c>
       <c r="BE46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BF46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG46">
         <v>43</v>
       </c>
       <c r="BH46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="20:60">
@@ -11294,31 +11318,31 @@
         <v>97</v>
       </c>
       <c r="U47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W47">
         <v>44</v>
       </c>
       <c r="X47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD47">
         <v>163</v>
       </c>
       <c r="BE47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BF47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG47">
         <v>44</v>
       </c>
       <c r="BH47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="20:60">
@@ -11326,31 +11350,31 @@
         <v>209</v>
       </c>
       <c r="U48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W48">
         <v>45</v>
       </c>
       <c r="X48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD48">
         <v>166</v>
       </c>
       <c r="BE48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BF48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG48">
         <v>45</v>
       </c>
       <c r="BH48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="20:60">
@@ -11358,31 +11382,31 @@
         <v>210</v>
       </c>
       <c r="U49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W49">
         <v>46</v>
       </c>
       <c r="X49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD49">
         <v>199</v>
       </c>
       <c r="BE49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BF49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG49">
         <v>46</v>
       </c>
       <c r="BH49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="20:60">
@@ -11390,31 +11414,31 @@
         <v>215</v>
       </c>
       <c r="U50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W50">
         <v>47</v>
       </c>
       <c r="X50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD50">
         <v>202</v>
       </c>
       <c r="BE50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BF50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG50">
         <v>47</v>
       </c>
       <c r="BH50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="20:60">
@@ -11422,31 +11446,31 @@
         <v>216</v>
       </c>
       <c r="U51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W51">
         <v>48</v>
       </c>
       <c r="X51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD51">
         <v>205</v>
       </c>
       <c r="BE51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BF51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG51">
         <v>48</v>
       </c>
       <c r="BH51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="20:60">
@@ -11454,31 +11478,31 @@
         <v>99</v>
       </c>
       <c r="U52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W52">
         <v>49</v>
       </c>
       <c r="X52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD52">
         <v>208</v>
       </c>
       <c r="BE52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BF52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG52">
         <v>49</v>
       </c>
       <c r="BH52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="20:60">
@@ -11486,31 +11510,31 @@
         <v>100</v>
       </c>
       <c r="U53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W53">
         <v>50</v>
       </c>
       <c r="X53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD53">
         <v>211</v>
       </c>
       <c r="BE53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BF53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG53">
         <v>50</v>
       </c>
       <c r="BH53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="20:60">
@@ -11518,31 +11542,31 @@
         <v>105</v>
       </c>
       <c r="U54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W54">
         <v>51</v>
       </c>
       <c r="X54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD54">
         <v>214</v>
       </c>
       <c r="BE54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BF54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG54">
         <v>51</v>
       </c>
       <c r="BH54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="20:60">
@@ -11550,31 +11574,31 @@
         <v>106</v>
       </c>
       <c r="U55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W55">
         <v>52</v>
       </c>
       <c r="X55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD55">
         <v>217</v>
       </c>
       <c r="BE55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BF55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG55">
         <v>52</v>
       </c>
       <c r="BH55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="20:60">
@@ -11582,31 +11606,31 @@
         <v>218</v>
       </c>
       <c r="U56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W56">
         <v>53</v>
       </c>
       <c r="X56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD56">
         <v>220</v>
       </c>
       <c r="BE56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BF56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG56">
         <v>53</v>
       </c>
       <c r="BH56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="20:60">
@@ -11614,31 +11638,31 @@
         <v>219</v>
       </c>
       <c r="U57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W57">
         <v>54</v>
       </c>
       <c r="X57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD57">
         <v>223</v>
       </c>
       <c r="BE57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BF57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG57">
         <v>54</v>
       </c>
       <c r="BH57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="20:60">
@@ -11646,31 +11670,31 @@
         <v>224</v>
       </c>
       <c r="U58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W58">
         <v>55</v>
       </c>
       <c r="X58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD58">
         <v>226</v>
       </c>
       <c r="BE58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BF58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG58">
         <v>55</v>
       </c>
       <c r="BH58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="20:60">
@@ -11678,31 +11702,31 @@
         <v>225</v>
       </c>
       <c r="U59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W59">
         <v>56</v>
       </c>
       <c r="X59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD59">
         <v>229</v>
       </c>
       <c r="BE59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BF59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG59">
         <v>56</v>
       </c>
       <c r="BH59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="20:60">
@@ -11710,31 +11734,31 @@
         <v>108</v>
       </c>
       <c r="U60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W60">
         <v>57</v>
       </c>
       <c r="X60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD60">
         <v>232</v>
       </c>
       <c r="BE60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BF60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG60">
         <v>57</v>
       </c>
       <c r="BH60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="20:60">
@@ -11742,31 +11766,31 @@
         <v>109</v>
       </c>
       <c r="U61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W61">
         <v>58</v>
       </c>
       <c r="X61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD61">
         <v>235</v>
       </c>
       <c r="BE61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BF61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG61">
         <v>58</v>
       </c>
       <c r="BH61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="20:60">
@@ -11774,31 +11798,31 @@
         <v>114</v>
       </c>
       <c r="U62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W62">
         <v>59</v>
       </c>
       <c r="X62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BD62">
         <v>239</v>
       </c>
       <c r="BE62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BF62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BG62">
         <v>59</v>
       </c>
       <c r="BH62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="20:60">
@@ -11806,16 +11830,16 @@
         <v>115</v>
       </c>
       <c r="U63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W63">
         <v>60</v>
       </c>
       <c r="X63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="20:60">
@@ -11823,16 +11847,16 @@
         <v>227</v>
       </c>
       <c r="U64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W64">
         <v>61</v>
       </c>
       <c r="X64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="20:24">
@@ -11840,16 +11864,16 @@
         <v>228</v>
       </c>
       <c r="U65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W65">
         <v>62</v>
       </c>
       <c r="X65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="20:24">
@@ -11857,16 +11881,16 @@
         <v>233</v>
       </c>
       <c r="U66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W66">
         <v>63</v>
       </c>
       <c r="X66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="20:24">
@@ -11874,16 +11898,16 @@
         <v>234</v>
       </c>
       <c r="U67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W67">
         <v>64</v>
       </c>
       <c r="X67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
